--- a/my excel.xlsx
+++ b/my excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8D5B5-C548-47BB-8BA6-14C792E367C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C7A684-BC62-45AA-8051-1F05ECA6EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="jenkins" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>https://youtu.be/Nabjqv8KDgc</t>
   </si>
@@ -37,13 +38,138 @@
   </si>
   <si>
     <t>build process(2nd video also)</t>
+  </si>
+  <si>
+    <t>jenkins installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in jenkins.io go to downloads and copy and paste first two commands to get a repo from online </t>
+  </si>
+  <si>
+    <t>for that go to downloads--&gt;centos--&gt;</t>
+  </si>
+  <si>
+    <t>wget -O /etc/yum.repos.d/jenkins.repo https://pkg.jenkins.io/redhat-stable/jenkins.repo</t>
+  </si>
+  <si>
+    <t>rpm --import https://pkg.jenkins.io/redhat-stable/jenkins.io.key</t>
+  </si>
+  <si>
+    <t>install java-1.8.0-openjdk</t>
+  </si>
+  <si>
+    <t>install maven git jenkins</t>
+  </si>
+  <si>
+    <t>systemctl start jenkins</t>
+  </si>
+  <si>
+    <t>vi /etc/passwd</t>
+  </si>
+  <si>
+    <t>(in place of false replace with bash)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to change permissions </t>
+  </si>
+  <si>
+    <t>passwd jenkins</t>
+  </si>
+  <si>
+    <t>visudo</t>
+  </si>
+  <si>
+    <t>(in 100 line add jenkins and passwd)</t>
+  </si>
+  <si>
+    <r>
+      <t>vi /etc/ssh/sshd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>config</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vi /etc/ssh/sshd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>config (63 line no to yes)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">now go to slave and do the process </t>
+  </si>
+  <si>
+    <t>useradd jenkins</t>
+  </si>
+  <si>
+    <t>su - jenkins</t>
+  </si>
+  <si>
+    <t>ssh-keygen</t>
+  </si>
+  <si>
+    <t>ssh-copy-id jenkins@localhost</t>
+  </si>
+  <si>
+    <t>ssh jenkins@localhost</t>
+  </si>
+  <si>
+    <t>ssh-copy-id jenkins@</t>
+  </si>
+  <si>
+    <t>(no gap)</t>
+  </si>
+  <si>
+    <t>publicip  of slave</t>
+  </si>
+  <si>
+    <t>slave process</t>
+  </si>
+  <si>
+    <t>ssh jenkins@publicip of slave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +185,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,9 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -400,4 +564,1379 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E475BAA9-96C0-419C-AB44-4C6FBFA26AF7}">
+  <dimension ref="A1:AI36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H8:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+    </row>
+    <row r="3" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+    </row>
+    <row r="7" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+    </row>
+    <row r="8" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+    </row>
+    <row r="9" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+    </row>
+    <row r="11" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+    </row>
+    <row r="12" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+    </row>
+    <row r="13" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+    </row>
+    <row r="21" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+    </row>
+    <row r="23" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+    </row>
+    <row r="24" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+    </row>
+    <row r="25" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+    </row>
+    <row r="26" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+    </row>
+    <row r="28" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+    </row>
+    <row r="29" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+    </row>
+    <row r="30" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+    </row>
+    <row r="31" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+    </row>
+    <row r="32" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/my excel.xlsx
+++ b/my excel.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C7A684-BC62-45AA-8051-1F05ECA6EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="jenkins" sheetId="2" r:id="rId2"/>
+    <sheet name="ansible" sheetId="3" r:id="rId3"/>
+    <sheet name="commands" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>https://youtu.be/Nabjqv8KDgc</t>
   </si>
@@ -164,12 +160,90 @@
   <si>
     <t>ssh jenkins@publicip of slave</t>
   </si>
+  <si>
+    <t>install master and slaves</t>
+  </si>
+  <si>
+    <t>sudo su -</t>
+  </si>
+  <si>
+    <t>sudo amazon-linux-extras install ansible2 -y</t>
+  </si>
+  <si>
+    <t>vi /etc/ansible/hosts</t>
+  </si>
+  <si>
+    <t>vi /etc/ansible/ansible.cfg</t>
+  </si>
+  <si>
+    <t>remove hashtag from inventory and sudo user to run</t>
+  </si>
+  <si>
+    <t>visudo(in 100 line add line ansble in place of root ansible(user name)and in place of  all NOPASSWD=ALL)</t>
+  </si>
+  <si>
+    <t>vim /etc/ssh/sshd_config(63 line change no to yes)</t>
+  </si>
+  <si>
+    <t>systemctl restart sshd</t>
+  </si>
+  <si>
+    <t>yum install git python python-pip python-level openssl -y</t>
+  </si>
+  <si>
+    <t>in node</t>
+  </si>
+  <si>
+    <t>useradd ansible</t>
+  </si>
+  <si>
+    <t>vi /etc/ssh/sshd_config</t>
+  </si>
+  <si>
+    <t>ansiible all --list-hosts</t>
+  </si>
+  <si>
+    <t>ansiible dev --list-hosts(shows ips in devv team)</t>
+  </si>
+  <si>
+    <t>ansiible all[0] --list-hosts(for first node)</t>
+  </si>
+  <si>
+    <t>mater</t>
+  </si>
+  <si>
+    <t>su - ansible(to go to ansible user)</t>
+  </si>
+  <si>
+    <t>ssh-keygen and double enter</t>
+  </si>
+  <si>
+    <t>ssh-copy-id ansible@localhost</t>
+  </si>
+  <si>
+    <t>ssh ansible@localhost</t>
+  </si>
+  <si>
+    <t>ssh-copy-id ansible@private ip of slave</t>
+  </si>
+  <si>
+    <t>passwd ansible</t>
+  </si>
+  <si>
+    <t>after example 2 [dev(group nme)]at doen line enter private ipddress down by downn</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>vim file.yml</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,6 +322,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -309,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -344,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -521,27 +600,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -559,32 +638,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{C1DB2AAD-9122-47D4-958E-AA4E8AAA024F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{910CE456-D4B3-4A40-8CED-D5C92E9312F8}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E475BAA9-96C0-419C-AB44-4C6FBFA26AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="26.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -623,7 +702,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -662,7 +741,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -701,7 +780,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -740,7 +819,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -779,7 +858,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -818,7 +897,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -857,7 +936,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -900,7 +979,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -939,7 +1018,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -980,7 +1059,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1019,7 +1098,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1137,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="18.75">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1176,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="18.75">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +1215,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="18.75">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1254,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1293,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1256,7 +1335,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="18.75">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1374,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1334,7 +1413,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="18.75">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1452,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="18.75">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1491,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="18.75">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1530,7 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" ht="18.75">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1569,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="18.75">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1608,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1566,7 +1645,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1603,7 +1682,7 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="18.75">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1640,7 +1719,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="18.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1677,7 +1756,7 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="18.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1714,7 +1793,7 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1751,7 +1830,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1788,7 +1867,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1825,7 +1904,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="18.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1862,7 +1941,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="18.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1899,7 +1978,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="18.75">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1939,4 +2018,190 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>